--- a/medicine/Enfance/Rosalys/Rosalys.xlsx
+++ b/medicine/Enfance/Rosalys/Rosalys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosalys est une illustratrice, autrice, éditrice, vidéaste et traductrice.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosalys est une artiste puisant son inspiration dans sa culture française et sa grande passion pour le Japon[1]. Illustratrice d'artbooks, mangas, albums jeunesse et autrice de romans, elle dépeint un univers positif et coloré, empreint de lyrisme et de bienveillance.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosalys est une artiste puisant son inspiration dans sa culture française et sa grande passion pour le Japon. Illustratrice d'artbooks, mangas, albums jeunesse et autrice de romans, elle dépeint un univers positif et coloré, empreint de lyrisme et de bienveillance.
 Artiste professionnelle depuis 2008 sous le nom de plume « Rosalys », elle a également signé sous le pseudonyme de « SaturnAlice » de 1999 à 2007, période durant laquelle elle publiait des mangas dans plusieurs dōjinshi.
 En 2012, elle fonde et dirige la maison d'édition Univers partagés éditions.
 En 2015, elle lance sa chaîne YouTube.
@@ -548,25 +562,166 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Artbook
-Fluffy cuties Edition Deluxe, Rosalys, Univers partagés éditions, 2023  (ISBN 978-2-36750-079-9)
+          <t>Artbook</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fluffy cuties Edition Deluxe, Rosalys, Univers partagés éditions, 2023  (ISBN 978-2-36750-079-9)
 Fluffy cuties, Rosalys, Univers partagés éditions, 2023  (ISBN 978-2-36750-078-2).
 Gourmandises japonaises, Rosalys, Univers partagés éditions, 2015  (ISBN 978-2-36750-037-9).
 Princesses &amp; Lolitas, Rosalys, éditions BookLight, 2011  (ISBN 978-2-9538357-1-7).
-Cute flowers, Rosalys, éditions BD associées, 2009  (ISBN 978-2-9534734-0-7).
-Livre de coloriage
-Le voyage de Hana Coloriage, Rosalys, Univers partagés éditions, 2022  (ISBN 978-2-36750-077-5).
-Gourmandises japonaises Coloriage, Rosalys, Univers partagés éditions, 2015  (ISBN 978-2-36750-045-4).
-Artbook collectif
-Drakaina : Masters, Collectif, SQP publishing, 2010.
-Roman
-Le voyage de Hana, dans un autre monde – tome 1 – Harry sur l'île aux animaux tranquilles, Rosalys, Univers partagés éditions, 2021. (ISBN 978-2-36750-073-7).
+Cute flowers, Rosalys, éditions BD associées, 2009  (ISBN 978-2-9534734-0-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livre de coloriage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le voyage de Hana Coloriage, Rosalys, Univers partagés éditions, 2022  (ISBN 978-2-36750-077-5).
+Gourmandises japonaises Coloriage, Rosalys, Univers partagés éditions, 2015  (ISBN 978-2-36750-045-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Artbook collectif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Drakaina : Masters, Collectif, SQP publishing, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le voyage de Hana, dans un autre monde – tome 1 – Harry sur l'île aux animaux tranquilles, Rosalys, Univers partagés éditions, 2021. (ISBN 978-2-36750-073-7).
 Le voyage de Hana, Stories – tome 1 – Anecdotes au soleil levant, Rosalys, Univers partagés éditions, 2020. (ISBN 978-2-36750-070-6).
 Le voyage de Hana – tome 3 – Fraisie au pays des wagashi, Rosalys, Univers partagés éditions, 2019. (ISBN 978-2-36750-067-6).
 Le voyage de Hana – tome 2 – Floraison des cerisiers au Japon, de Tōkyō à Kyōto, Rosalys, Univers partagés éditions, 2018. (ISBN 978-2-36750-064-5).
-Le voyage de Hana - tome 1 - Premier envol vers le Japon : destination Tōkyō, Rosalys, Univers partagés éditions, 2017  (ISBN 978-2-36750-060-7).
-Album jeunesse
-Divines, Les beautés de la mythologie classique, Rosalys (textes), Fleur D. (illustrations), Univers partagés éditions, 2012  (ISBN 978-2-36750-013-3).
+Le voyage de Hana - tome 1 - Premier envol vers le Japon : destination Tōkyō, Rosalys, Univers partagés éditions, 2017  (ISBN 978-2-36750-060-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Album jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Divines, Les beautés de la mythologie classique, Rosalys (textes), Fleur D. (illustrations), Univers partagés éditions, 2012  (ISBN 978-2-36750-013-3).
 Fraisie, la magie de la pâtisserie, Rosalys, Univers partagés éditions, 2012  (ISBN 978-2-9540937-5-8).
 フレジー、お菓子の魔法, Version japonaise de Fraisie, la magie de la pâtisserie, Univers partagés éditions, 2013  (ISBN 978-2-36750-006-5).
 Berrie, the Magic of Pastry, Version anglaise de Fraisie, la magie de la pâtisserie, Univers partagés éditions, 2012  (ISBN 978-2-36750-001-0).
@@ -575,37 +730,241 @@
 J'aime *, Rosalys, éditions du Poisson Borgne, 2010  (ISBN 978-2-917331-09-5).
 Mon amie, Honorine la souris, Laetitia Étienne (textes), Rosalys (illustrations), Chouetteditions, 2010  (ISBN 978-2-923834-56-6).
 My little friend Honorine, Version anglaise de Mon amie, Honorine la souris, Chouetteditions, 2010.
-Rêves de lapinou, Rosalys (textes), Sandrine Fourrier (illustrations), Chouetteditions, 2010  (ISBN 978-2-923834-94-8).
-Recueil jeunesse
-Mes jolies histoires de princesses, Collectif, Éditions Hemma, 2020  (ISBN 978-2-50804-617-9).
+Rêves de lapinou, Rosalys (textes), Sandrine Fourrier (illustrations), Chouetteditions, 2010  (ISBN 978-2-923834-94-8).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueil jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mes jolies histoires de princesses, Collectif, Éditions Hemma, 2020  (ISBN 978-2-50804-617-9).
 Les princesses et moi tome 4, Collectif, Éditions Hemma, 2016  (ISBN 978-2-50803-402-2).
-16 histoires de belles princesses, Collectif, Éditions Hemma, 2011  (ISBN 978-2-508-01300-3).
-Manga
-Workaholic, Morgan Magnin (scénario), Rosalys (illustrations), Univers Partagés éditions, 2012  (ISBN 978-2-9540937-0-3).
+16 histoires de belles princesses, Collectif, Éditions Hemma, 2011  (ISBN 978-2-508-01300-3).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Workaholic, Morgan Magnin (scénario), Rosalys (illustrations), Univers Partagés éditions, 2012  (ISBN 978-2-9540937-0-3).
 Workaholic English edition, version anglaise de Workaholic, Univers Partagés éditions, 2012  (ISBN 978-2-9540937-1-0).
-Fly for fun (adaptation du MMORPG Flyff), Rosalys, éditions Foolstrip en partenariat avec Gala Networks, 2008-2009  (ISBN 978-2-917713-80-8).
-Dōjinshi
-Happy life in Japan #1.0, 2015.
+Fly for fun (adaptation du MMORPG Flyff), Rosalys, éditions Foolstrip en partenariat avec Gala Networks, 2008-2009  (ISBN 978-2-917713-80-8).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dōjinshi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Happy life in Japan #1.0, 2015.
 JolieCure, 2014.
 Uni, 2011.
 Chibi three, 2000.
-Usa-usa, 1999.
-Fanzine collectif
-Paris-Kyoto, 2020.
+Usa-usa, 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fanzine collectif</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Paris-Kyoto, 2020.
 Tribute to Tsukasa Hôjô, 2010.
 Tribute to CLAMP, 2009.
 Yamano-world, 2005.
 White &amp; black galerie, 2004.
 PlayElf, 2004.
-Mizono, 2000.
-Exposition
-Fruits &amp; couleurs, 2010, série d’acryliques sur papier toile pour exposition Rosalys, 33 × 41 cm
+Mizono, 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Exposition</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fruits &amp; couleurs, 2010, série d’acryliques sur papier toile pour exposition Rosalys, 33 × 41 cm
 Langage of flowers, 2010, série de digigraphies pour exposition Rosalys, 30 × 30 cm
 Zodiac signs, 2010, série de digigraphies pour exposition Rosalys at La Gallery Montreal, 30 × 30 cm
 Lolita, 2010, série de tirages d’art pour exposition collective avec les éditions du Poisson Borgne, 21 × 29,7 cm
-Dark hair, 2009, série d’acryliques sur toile pour exposition Rosalys, 46 × 55 cm
-Traduction de manga
-A sign of affection Édition collector – tome 7, suu Morishita, Rosalys, éditions Akata, 2023. (ISBN 978-2-38212-623-3).
+Dark hair, 2009, série d’acryliques sur toile pour exposition Rosalys, 46 × 55 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rosalys</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosalys</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Traduction de manga</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A sign of affection Édition collector – tome 7, suu Morishita, Rosalys, éditions Akata, 2023. (ISBN 978-2-38212-623-3).
 A sign of affection – tome 7, suu Morishita, Rosalys, éditions Akata, 2023. (ISBN 978-2-38212-492-5).
 A sign of affection – tome 6, suu Morishita, Rosalys, éditions Akata, 2022. (ISBN 978-2-38212-281-5).
 A sign of affection – tome 5, suu Morishita, Rosalys, éditions Akata, 2022. (ISBN 978-2-38212-249-5).
